--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_annual.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.04823062108356169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02967431311721467</v>
+        <v>0.04011141694006874</v>
       </c>
       <c r="H2" t="n">
-        <v>-38.47412193634702</v>
+        <v>-16.83412728487585</v>
       </c>
       <c r="I2" t="n">
-        <v>-53.61070424532794</v>
+        <v>50.47713347931106</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.03835660347027155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05060746042064707</v>
+        <v>0.0627292308392918</v>
       </c>
       <c r="H3" t="n">
-        <v>31.9393685623666</v>
+        <v>63.54219394819556</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.4527679884705402</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4640837462038987</v>
+        <v>-0.4707463410059471</v>
       </c>
       <c r="H4" t="n">
-        <v>2.499239792014314</v>
+        <v>-3.970764937719685</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.4788349786360374</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4762246958605959</v>
+        <v>-0.4755622788970378</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5451320166452553</v>
+        <v>0.6834713178894997</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2336316508151194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2321614414714459</v>
+        <v>0.2472773279702291</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.6292851754221146</v>
+        <v>5.840680022377611</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2205746116218639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2527282531195749</v>
+        <v>0.2626512616359919</v>
       </c>
       <c r="H7" t="n">
-        <v>14.57721777737174</v>
+        <v>19.07592614795621</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1668064381739801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1675018691738265</v>
+        <v>0.1652813337650478</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4169089679386705</v>
+        <v>-0.9142958902711003</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1720113297547816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1742341235992211</v>
+        <v>0.1755788339174719</v>
       </c>
       <c r="H9" t="n">
-        <v>1.292236882075339</v>
+        <v>2.073993711795682</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.00473948184538576</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001783805417402732</v>
+        <v>-0.0006829463226870007</v>
       </c>
       <c r="H10" t="n">
-        <v>-137.6371399995845</v>
+        <v>85.59027452859851</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0146552956725634</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002065647719142422</v>
+        <v>0.002772937684923746</v>
       </c>
       <c r="H11" t="n">
-        <v>-114.094889419458</v>
+        <v>118.9210627126073</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1367222749794492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1290732776750245</v>
+        <v>0.1299940665913374</v>
       </c>
       <c r="H12" t="n">
-        <v>-5.594550928569923</v>
+        <v>-4.921076970905529</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.1246375821478671</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1321329634605308</v>
+        <v>0.1444417545757515</v>
       </c>
       <c r="H13" t="n">
-        <v>6.013740946748591</v>
+        <v>15.8894067797217</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2473334756068372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2609543226021849</v>
+        <v>0.2543523514079327</v>
       </c>
       <c r="H14" t="n">
-        <v>5.507077827588315</v>
+        <v>2.837818772357681</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2526770099516101</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2760302411791064</v>
+        <v>0.2634471138946617</v>
       </c>
       <c r="H15" t="n">
-        <v>9.242325303741993</v>
+        <v>4.262399632287157</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1534692709482307</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1429972260984646</v>
+        <v>0.1437213248549029</v>
       </c>
       <c r="H16" t="n">
-        <v>-6.823545055673462</v>
+        <v>-6.351725028143282</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1510151984036966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1396027156971635</v>
+        <v>0.1492918236684211</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.557174924887379</v>
+        <v>-1.141192908722041</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.01637490625494815</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.006052628463266677</v>
+        <v>-0.0004048116894381696</v>
       </c>
       <c r="H18" t="n">
-        <v>-63.03717182235654</v>
+        <v>97.52785339265166</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.0008420639130941139</v>
       </c>
       <c r="G19" t="n">
-        <v>0.009480760917655788</v>
+        <v>0.007545671958485558</v>
       </c>
       <c r="H19" t="n">
-        <v>-1225.895644051446</v>
+        <v>996.0925460823316</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1386621728908525</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1430855827525368</v>
+        <v>0.1348772251343799</v>
       </c>
       <c r="H20" t="n">
-        <v>3.190062415339597</v>
+        <v>-2.729618090906378</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1430944751915809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1520793264397225</v>
+        <v>0.1511009595328182</v>
       </c>
       <c r="H21" t="n">
-        <v>6.2789644646394</v>
+        <v>5.595243513432582</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.186217385980056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1689246277670493</v>
+        <v>0.1592772411451793</v>
       </c>
       <c r="H22" t="n">
-        <v>-9.286328514384126</v>
+        <v>-14.46704060047433</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.179460504226912</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1811262156514318</v>
+        <v>0.1824330351587339</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9281771672800212</v>
+        <v>1.656370544943635</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0943972626856821</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1026879690161124</v>
+        <v>-0.09208699941680973</v>
       </c>
       <c r="H24" t="n">
-        <v>8.782782566520119</v>
+        <v>2.447383751544725</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.09960845456872909</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.08950768592825781</v>
+        <v>-0.07959933242092411</v>
       </c>
       <c r="H25" t="n">
-        <v>-10.14047319999511</v>
+        <v>20.08777491271972</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2301404426212312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2351595835707973</v>
+        <v>0.2246061005965345</v>
       </c>
       <c r="H26" t="n">
-        <v>2.180903491971935</v>
+        <v>-2.404767263703069</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2325722382365865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2408254746258883</v>
+        <v>0.2438368020071973</v>
       </c>
       <c r="H27" t="n">
-        <v>3.548676510954038</v>
+        <v>4.843468788889502</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.05880326267593137</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06025094051225965</v>
+        <v>0.06245067125083205</v>
       </c>
       <c r="H28" t="n">
-        <v>2.461900531449294</v>
+        <v>6.202731632429629</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.07058452141033789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08452930884329438</v>
+        <v>0.08041253103060982</v>
       </c>
       <c r="H29" t="n">
-        <v>19.75615496758773</v>
+        <v>13.92374620370028</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_annual.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04823062108356169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04011141694006874</v>
+        <v>0.02579693719735697</v>
       </c>
       <c r="H2" t="n">
-        <v>-16.83412728487585</v>
+        <v>-46.51336305070044</v>
       </c>
       <c r="I2" t="n">
-        <v>50.47713347931106</v>
+        <v>32.67773463963508</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.03835660347027155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0627292308392918</v>
+        <v>0.05919989463311003</v>
       </c>
       <c r="H3" t="n">
-        <v>63.54219394819556</v>
+        <v>54.34081560165558</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.4527679884705402</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4707463410059471</v>
+        <v>-0.4618787912001062</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.970764937719685</v>
+        <v>-2.012245335705497</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.4788349786360374</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4755622788970378</v>
+        <v>-0.4604397932635533</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6834713178894997</v>
+        <v>3.841654472462071</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2336316508151194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2472773279702291</v>
+        <v>0.2556127196486447</v>
       </c>
       <c r="H6" t="n">
-        <v>5.840680022377611</v>
+        <v>9.408429361704776</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2205746116218639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2626512616359919</v>
+        <v>0.2702007624851748</v>
       </c>
       <c r="H7" t="n">
-        <v>19.07592614795621</v>
+        <v>22.49857791810878</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1668064381739801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1652813337650478</v>
+        <v>0.1608903154894138</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.9142958902711003</v>
+        <v>-3.5466992457424</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1720113297547816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1755788339174719</v>
+        <v>0.1849491562926063</v>
       </c>
       <c r="H9" t="n">
-        <v>2.073993711795682</v>
+        <v>7.52149672714513</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.00473948184538576</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0006829463226870007</v>
+        <v>-0.01274980334362525</v>
       </c>
       <c r="H10" t="n">
-        <v>85.59027452859851</v>
+        <v>-169.0126001018052</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0146552956725634</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002772937684923746</v>
+        <v>0.006291054214953821</v>
       </c>
       <c r="H11" t="n">
-        <v>118.9210627126073</v>
+        <v>142.9268324263937</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1367222749794492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1299940665913374</v>
+        <v>0.1350098484745858</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.921076970905529</v>
+        <v>-1.2524853796653</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.1246375821478671</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1444417545757515</v>
+        <v>0.1384185323755514</v>
       </c>
       <c r="H13" t="n">
-        <v>15.8894067797217</v>
+        <v>11.05681768708808</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2473334756068372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2543523514079327</v>
+        <v>0.2582908278018418</v>
       </c>
       <c r="H14" t="n">
-        <v>2.837818772357681</v>
+        <v>4.430193756878468</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2526770099516101</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2634471138946617</v>
+        <v>0.2666271076568411</v>
       </c>
       <c r="H15" t="n">
-        <v>4.262399632287157</v>
+        <v>5.520920841948622</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1534692709482307</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1437213248549029</v>
+        <v>0.1381523603370262</v>
       </c>
       <c r="H16" t="n">
-        <v>-6.351725028143282</v>
+        <v>-9.98044137211763</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1510151984036966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1492918236684211</v>
+        <v>0.1475216427201645</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.141192908722041</v>
+        <v>-2.313380189848881</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.01637490625494815</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0004048116894381696</v>
+        <v>-0.01658167031579169</v>
       </c>
       <c r="H18" t="n">
-        <v>97.52785339265166</v>
+        <v>-1.26268851634531</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.0008420639130941139</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007545671958485558</v>
+        <v>0.006315618930864462</v>
       </c>
       <c r="H19" t="n">
-        <v>996.0925460823316</v>
+        <v>850.0165762546569</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1386621728908525</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1348772251343799</v>
+        <v>0.1322789828876194</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.729618090906378</v>
+        <v>-4.603411204480114</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1430944751915809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1511009595328182</v>
+        <v>0.1418334602758132</v>
       </c>
       <c r="H21" t="n">
-        <v>5.595243513432582</v>
+        <v>-0.8812464031748179</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.186217385980056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1592772411451793</v>
+        <v>0.1679734769652912</v>
       </c>
       <c r="H22" t="n">
-        <v>-14.46704060047433</v>
+        <v>-9.797102949731416</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.179460504226912</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1824330351587339</v>
+        <v>0.187742138699867</v>
       </c>
       <c r="H23" t="n">
-        <v>1.656370544943635</v>
+        <v>4.614739331437291</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0943972626856821</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.09208699941680973</v>
+        <v>-0.09216080852107984</v>
       </c>
       <c r="H24" t="n">
-        <v>2.447383751544725</v>
+        <v>2.369193873819267</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.09960845456872909</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.07959933242092411</v>
+        <v>-0.08942848138610564</v>
       </c>
       <c r="H25" t="n">
-        <v>20.08777491271972</v>
+        <v>10.21998908295414</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2301404426212312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2246061005965345</v>
+        <v>0.2331482586053447</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.404767263703069</v>
+        <v>1.30694803132181</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2325722382365865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2438368020071973</v>
+        <v>0.2485247810341548</v>
       </c>
       <c r="H27" t="n">
-        <v>4.843468788889502</v>
+        <v>6.859177569310923</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.05880326267593137</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06245067125083205</v>
+        <v>0.06968555133095868</v>
       </c>
       <c r="H28" t="n">
-        <v>6.202731632429629</v>
+        <v>18.50626676108146</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.07058452141033789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08041253103060982</v>
+        <v>0.07814666749210229</v>
       </c>
       <c r="H29" t="n">
-        <v>13.92374620370028</v>
+        <v>10.71360396113254</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>